--- a/Data/EC/NIT-8300264537.xlsx
+++ b/Data/EC/NIT-8300264537.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF3B135-2AD8-4057-AA76-905A9C3D6A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC259B30-F58B-4A68-9325-A68F658216F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{922B2729-1FA9-4D6B-B2BE-089114D9FBE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B445D5BB-40A3-43EA-9215-FA5570992127}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,25 +71,25 @@
     <t>NEIDA CECILIA PABUENA LEZAMA</t>
   </si>
   <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
     <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC51851-AE40-D402-EC4A-87483C5F8B46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64C6553-924B-FF18-14B0-E1DA3184503A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7397D26F-C621-41A8-A8C9-01BD5C576924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC29BC1D-5E4B-4912-B915-B4B002FCF847}">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1032,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1170,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="24">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="24">
         <v>908526</v>
